--- a/Speedy Barcodes9November.xlsx
+++ b/Speedy Barcodes9November.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faaiz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{B5E83F8F-C9AC-4E4A-9C29-425DDCA1869D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{1D5969DE-F917-AD41-B155-7041519EBB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="698">
   <si>
     <t>UPC-12</t>
   </si>
@@ -2196,6 +2196,24 @@
   </si>
   <si>
     <t>MYB-FBA</t>
+  </si>
+  <si>
+    <t>Feather Mouse 2</t>
+  </si>
+  <si>
+    <t>MF2</t>
+  </si>
+  <si>
+    <t>MF2-FBA</t>
+  </si>
+  <si>
+    <t>Keyboard Mouse Combo</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>KM-FBA</t>
   </si>
 </sst>
 </file>
@@ -2636,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4229,18 +4247,30 @@
       <c r="A126" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B126" s="2"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
+      <c r="B126" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>693</v>
+      </c>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
+      <c r="B127" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>696</v>
+      </c>
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
